--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_9_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>349826.3142053805</v>
+        <v>415115.7207900311</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10438043.6205206</v>
+        <v>10479150.27044231</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11027078.81211499</v>
+        <v>11071652.227515</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7992909.83959434</v>
+        <v>7969748.562761926</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>171.2337316932961</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>411.8707348436268</v>
       </c>
       <c r="H11" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>298.3308386305601</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,10 +1451,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>92.2931090000737</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5072338470352</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H12" t="n">
-        <v>67.02967557640201</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>57.0397739186916</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>160.0665504607858</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>39.37849015824514</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>344.4536659644692</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.7354738093681</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>127.7310478910813</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0602718113751</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.4348628134694</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H15" t="n">
-        <v>93.80186143767972</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>123.4465848782058</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8158127158603</v>
+        <v>188.4793846112704</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>52.69793726395703</v>
       </c>
       <c r="F16" t="n">
-        <v>117.7658056923545</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2317483551653</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>43.24208064985461</v>
+        <v>82.0181663716083</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H18" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269742</v>
       </c>
       <c r="I18" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.4637346787652</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>220.7486959972119</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>133.4875826627897</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>1.750842396451945</v>
       </c>
       <c r="G20" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>38.52046048789128</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H21" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269698</v>
       </c>
       <c r="I21" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>147.8022454921069</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>84.6654437131905</v>
       </c>
     </row>
     <row r="23">
@@ -2323,16 +2323,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>54.34722592168497</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>411.547702772954</v>
+        <v>409.4774912997829</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I24" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705085</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.0176584851967</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>105.5027752869404</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>80.03571270034472</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>13.78857130219191</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3343964518637</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H27" t="n">
         <v>92.83156789269626</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>110.4254304669548</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>23.05561470199493</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,22 +2797,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>73.37592137434356</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
-        <v>9.772410737566275</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>115.881950876915</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>147.8022454921073</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V32" t="n">
-        <v>63.60994111855874</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>227.5155723799794</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I33" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>103.3387326418233</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>137.8793739418751</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>220.7486959972119</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,10 +3283,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>50.71972988168417</v>
       </c>
       <c r="I35" t="n">
-        <v>6.988488170809386</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>191.333818565964</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>103.3387326418233</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>15.57113082389171</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>148.8709997036282</v>
       </c>
       <c r="G38" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I39" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>96.88241306657247</v>
+        <v>243.5827407682099</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>39.67788952565731</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>141.1483400922264</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I42" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>25.56018538799784</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>211.8979492262033</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>344.0721119594518</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>46.97062310786542</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705085</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>103.3387326418233</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6624603617375</v>
+        <v>64.57009008111716</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1536.052658116077</v>
+        <v>1043.349511971057</v>
       </c>
       <c r="C11" t="n">
-        <v>1536.052658116077</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="D11" t="n">
-        <v>1177.786959509327</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="E11" t="n">
-        <v>1177.786959509327</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F11" t="n">
-        <v>766.8010547197193</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G11" t="n">
-        <v>350.7700094231265</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H11" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I11" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J11" t="n">
-        <v>152.507818430191</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K11" t="n">
-        <v>366.8168396232736</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L11" t="n">
-        <v>669.5878927711894</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M11" t="n">
-        <v>1038.148464578733</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N11" t="n">
-        <v>1417.286540135171</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O11" t="n">
-        <v>1761.960612545601</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.630958172452</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q11" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R11" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S11" t="n">
-        <v>2168.459826904658</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T11" t="n">
-        <v>2168.459826904658</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U11" t="n">
-        <v>2168.459826904658</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="V11" t="n">
-        <v>1837.396939561087</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="W11" t="n">
-        <v>1536.052658116077</v>
+        <v>1429.949352035179</v>
       </c>
       <c r="X11" t="n">
-        <v>1536.052658116077</v>
+        <v>1429.949352035179</v>
       </c>
       <c r="Y11" t="n">
-        <v>1536.052658116077</v>
+        <v>1429.949352035179</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>728.1769755891414</v>
+        <v>728.176975589136</v>
       </c>
       <c r="C12" t="n">
-        <v>553.7239463080144</v>
+        <v>634.9516129627989</v>
       </c>
       <c r="D12" t="n">
-        <v>553.7239463080144</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E12" t="n">
-        <v>394.4864913025589</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F12" t="n">
-        <v>247.9519333294439</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G12" t="n">
-        <v>111.0759395445598</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H12" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I12" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J12" t="n">
-        <v>214.3836900926282</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K12" t="n">
-        <v>371.4749568374573</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L12" t="n">
-        <v>629.0260923974454</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M12" t="n">
-        <v>948.9329878659553</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N12" t="n">
-        <v>1485.626795024858</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O12" t="n">
-        <v>1776.986041279425</v>
+        <v>1545.199271745775</v>
       </c>
       <c r="P12" t="n">
-        <v>1991.494456840326</v>
+        <v>2074.985828260213</v>
       </c>
       <c r="Q12" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R12" t="n">
-        <v>2168.459826904658</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S12" t="n">
-        <v>2029.495166406376</v>
+        <v>2029.495166406371</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.495166406376</v>
+        <v>2029.495166406371</v>
       </c>
       <c r="U12" t="n">
-        <v>1801.39357653964</v>
+        <v>1801.393576539635</v>
       </c>
       <c r="V12" t="n">
-        <v>1566.241468307898</v>
+        <v>1566.241468307892</v>
       </c>
       <c r="W12" t="n">
-        <v>1312.004111579696</v>
+        <v>1312.004111579691</v>
       </c>
       <c r="X12" t="n">
-        <v>1104.152611374163</v>
+        <v>1104.152611374158</v>
       </c>
       <c r="Y12" t="n">
-        <v>896.3923126092095</v>
+        <v>896.3923126092041</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>968.9486577586706</v>
+        <v>247.8750772872071</v>
       </c>
       <c r="C13" t="n">
-        <v>800.0124748307637</v>
+        <v>247.8750772872071</v>
       </c>
       <c r="D13" t="n">
-        <v>649.895835418428</v>
+        <v>247.8750772872071</v>
       </c>
       <c r="E13" t="n">
-        <v>501.9827418360348</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F13" t="n">
-        <v>355.0927943381245</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G13" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H13" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I13" t="n">
-        <v>43.36919653809316</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J13" t="n">
-        <v>58.69630920174254</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K13" t="n">
-        <v>213.7203003246709</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L13" t="n">
-        <v>467.624070672889</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M13" t="n">
-        <v>745.7191196640795</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N13" t="n">
-        <v>1022.63630638511</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O13" t="n">
-        <v>1262.397853152954</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P13" t="n">
-        <v>1444.034594271088</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q13" t="n">
-        <v>1486.355378693649</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R13" t="n">
-        <v>1486.355378693649</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S13" t="n">
-        <v>1486.355378693649</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="T13" t="n">
-        <v>1486.355378693649</v>
+        <v>1262.751521386271</v>
       </c>
       <c r="U13" t="n">
-        <v>1486.355378693649</v>
+        <v>973.6252003602942</v>
       </c>
       <c r="V13" t="n">
-        <v>1486.355378693649</v>
+        <v>718.9407121544074</v>
       </c>
       <c r="W13" t="n">
-        <v>1196.938208656688</v>
+        <v>429.5235421174468</v>
       </c>
       <c r="X13" t="n">
-        <v>968.9486577586706</v>
+        <v>429.5235421174468</v>
       </c>
       <c r="Y13" t="n">
-        <v>968.9486577586706</v>
+        <v>429.5235421174468</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1189.79036007091</v>
+        <v>1562.084007297048</v>
       </c>
       <c r="C14" t="n">
-        <v>820.827843130498</v>
+        <v>1193.121490356636</v>
       </c>
       <c r="D14" t="n">
-        <v>462.5621445237474</v>
+        <v>845.18849443293</v>
       </c>
       <c r="E14" t="n">
-        <v>462.5621445237474</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="F14" t="n">
-        <v>462.5621445237474</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G14" t="n">
-        <v>46.66772653448668</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H14" t="n">
-        <v>46.66772653448668</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I14" t="n">
-        <v>46.66772653448668</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J14" t="n">
-        <v>167.171658520931</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K14" t="n">
-        <v>398.5143333927263</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L14" t="n">
-        <v>722.4171401477763</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M14" t="n">
-        <v>1114.490859496272</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N14" t="n">
-        <v>1517.522549903113</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O14" t="n">
-        <v>1884.758685273632</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P14" t="n">
-        <v>2163.685229645143</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q14" t="n">
-        <v>2324.974701690516</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R14" t="n">
-        <v>2333.386326724334</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S14" t="n">
-        <v>2204.365066228292</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T14" t="n">
-        <v>2204.365066228292</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U14" t="n">
-        <v>1950.768832075388</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V14" t="n">
-        <v>1619.705944731817</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="W14" t="n">
-        <v>1619.705944731817</v>
+        <v>1562.084007297048</v>
       </c>
       <c r="X14" t="n">
-        <v>1619.705944731817</v>
+        <v>1562.084007297048</v>
       </c>
       <c r="Y14" t="n">
-        <v>1229.566612756006</v>
+        <v>1562.084007297048</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>907.3794251737678</v>
+        <v>904.8600091750928</v>
       </c>
       <c r="C15" t="n">
-        <v>732.9263958926408</v>
+        <v>730.4069798939659</v>
       </c>
       <c r="D15" t="n">
-        <v>583.9919862313895</v>
+        <v>581.4725702327146</v>
       </c>
       <c r="E15" t="n">
-        <v>424.7545312259341</v>
+        <v>422.235115227259</v>
       </c>
       <c r="F15" t="n">
-        <v>278.2199732528191</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G15" t="n">
-        <v>141.4170815220419</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H15" t="n">
-        <v>46.66772653448668</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I15" t="n">
-        <v>46.66772653448668</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J15" t="n">
-        <v>99.62119593404083</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K15" t="n">
-        <v>530.102518809769</v>
+        <v>508.4654164929048</v>
       </c>
       <c r="L15" t="n">
-        <v>803.2102365474341</v>
+        <v>766.0165520528924</v>
       </c>
       <c r="M15" t="n">
-        <v>1141.270929660715</v>
+        <v>1085.923447521402</v>
       </c>
       <c r="N15" t="n">
-        <v>1502.687728305465</v>
+        <v>1428.705971516033</v>
       </c>
       <c r="O15" t="n">
-        <v>1811.093695363838</v>
+        <v>1720.065217770599</v>
       </c>
       <c r="P15" t="n">
-        <v>2039.283607235247</v>
+        <v>1934.5736333315</v>
       </c>
       <c r="Q15" t="n">
-        <v>2333.386326724334</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R15" t="n">
-        <v>2333.386326724334</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S15" t="n">
-        <v>2208.692806645338</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T15" t="n">
-        <v>2208.692806645338</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U15" t="n">
-        <v>1980.596026124267</v>
+        <v>1978.076610125592</v>
       </c>
       <c r="V15" t="n">
-        <v>1745.443917892524</v>
+        <v>1742.924501893849</v>
       </c>
       <c r="W15" t="n">
-        <v>1491.206561164322</v>
+        <v>1488.687145165648</v>
       </c>
       <c r="X15" t="n">
-        <v>1283.35506095879</v>
+        <v>1280.835644960115</v>
       </c>
       <c r="Y15" t="n">
-        <v>1075.594762193836</v>
+        <v>1073.075346195161</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>313.5361794020864</v>
+        <v>243.4893836965661</v>
       </c>
       <c r="C16" t="n">
-        <v>313.5361794020864</v>
+        <v>243.4893836965661</v>
       </c>
       <c r="D16" t="n">
-        <v>313.5361794020864</v>
+        <v>243.4893836965661</v>
       </c>
       <c r="E16" t="n">
-        <v>165.6230858196933</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F16" t="n">
-        <v>46.66772653448668</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G16" t="n">
-        <v>46.66772653448668</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H16" t="n">
-        <v>46.66772653448668</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I16" t="n">
-        <v>46.66772653448668</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J16" t="n">
-        <v>66.24155552490356</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K16" t="n">
-        <v>228.2442061124184</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L16" t="n">
-        <v>491.0782579069469</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M16" t="n">
-        <v>778.5890365654195</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N16" t="n">
-        <v>1064.698067947435</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O16" t="n">
-        <v>1312.949771002867</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P16" t="n">
-        <v>1501.851307544856</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q16" t="n">
-        <v>1549.201859755234</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R16" t="n">
-        <v>1549.201859755234</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S16" t="n">
-        <v>1549.201859755234</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="T16" t="n">
-        <v>1549.201859755234</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="U16" t="n">
-        <v>1260.078881618704</v>
+        <v>1197.229057667671</v>
       </c>
       <c r="V16" t="n">
-        <v>1005.394393412817</v>
+        <v>942.5445694617837</v>
       </c>
       <c r="W16" t="n">
-        <v>715.9772233758563</v>
+        <v>653.1273994248231</v>
       </c>
       <c r="X16" t="n">
-        <v>715.9772233758563</v>
+        <v>425.1378485268058</v>
       </c>
       <c r="Y16" t="n">
-        <v>495.1846442323261</v>
+        <v>425.1378485268058</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1330.099343395678</v>
+        <v>778.4750021151654</v>
       </c>
       <c r="C17" t="n">
-        <v>1330.099343395678</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="D17" t="n">
-        <v>1330.099343395678</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E17" t="n">
-        <v>944.3110907974335</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F17" t="n">
-        <v>533.3251860078259</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G17" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H17" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I17" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J17" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K17" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L17" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M17" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N17" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O17" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P17" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q17" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R17" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S17" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T17" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U17" t="n">
-        <v>2100.012626270159</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V17" t="n">
-        <v>2100.012626270159</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W17" t="n">
-        <v>1747.243971000045</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="X17" t="n">
-        <v>1373.778212738965</v>
+        <v>1251.460966789571</v>
       </c>
       <c r="Y17" t="n">
-        <v>1373.778212738965</v>
+        <v>861.3216348137596</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542615</v>
       </c>
       <c r="E18" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148806</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1446891756897</v>
+        <v>302.144689175691</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182532</v>
       </c>
       <c r="H18" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I18" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J18" t="n">
-        <v>114.5432626034352</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K18" t="n">
-        <v>299.2648838844851</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L18" t="n">
-        <v>593.9684409159568</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M18" t="n">
-        <v>957.2304598751767</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.515588472122</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O18" t="n">
-        <v>1676.586023648284</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P18" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q18" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R18" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S18" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T18" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U18" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V18" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y18" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>51.2467865680031</v>
+        <v>514.036292340028</v>
       </c>
       <c r="C19" t="n">
-        <v>51.2467865680031</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D19" t="n">
-        <v>51.2467865680031</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E19" t="n">
-        <v>51.2467865680031</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F19" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G19" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H19" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I19" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J19" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K19" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L19" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M19" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N19" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O19" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P19" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q19" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R19" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S19" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T19" t="n">
-        <v>1216.838891429094</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U19" t="n">
-        <v>927.7205539329314</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V19" t="n">
-        <v>673.0360657270445</v>
+        <v>869.6648135671841</v>
       </c>
       <c r="W19" t="n">
-        <v>383.6188956900839</v>
+        <v>734.8288714835581</v>
       </c>
       <c r="X19" t="n">
-        <v>383.6188956900839</v>
+        <v>734.8288714835581</v>
       </c>
       <c r="Y19" t="n">
-        <v>162.8263165465538</v>
+        <v>514.036292340028</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1660.900948886692</v>
+        <v>1232.405431550705</v>
       </c>
       <c r="C20" t="n">
-        <v>1660.900948886692</v>
+        <v>863.4429146102932</v>
       </c>
       <c r="D20" t="n">
-        <v>1302.635250279941</v>
+        <v>505.1772160035427</v>
       </c>
       <c r="E20" t="n">
-        <v>916.8469976816968</v>
+        <v>119.3889634052985</v>
       </c>
       <c r="F20" t="n">
-        <v>505.8610928920893</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G20" t="n">
-        <v>90.15634261637814</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H20" t="n">
-        <v>90.15634261637814</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I20" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J20" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K20" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L20" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M20" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N20" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O20" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P20" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q20" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R20" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S20" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T20" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U20" t="n">
-        <v>2437.640120926625</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V20" t="n">
-        <v>2437.640120926625</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="W20" t="n">
-        <v>2437.640120926625</v>
+        <v>1622.544763526517</v>
       </c>
       <c r="X20" t="n">
-        <v>2437.640120926625</v>
+        <v>1622.544763526517</v>
       </c>
       <c r="Y20" t="n">
-        <v>2047.500788950813</v>
+        <v>1232.405431550705</v>
       </c>
     </row>
     <row r="21">
@@ -5807,55 +5807,55 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966393</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155124</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542611</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488056</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756906</v>
       </c>
       <c r="G21" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182527</v>
       </c>
       <c r="H21" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I21" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0008189145199</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K21" t="n">
-        <v>614.5430248380227</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L21" t="n">
-        <v>909.2465818694943</v>
+        <v>801.9449557744477</v>
       </c>
       <c r="M21" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N21" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O21" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P21" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q21" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R21" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S21" t="n">
         <v>2426.617474780096</v>
@@ -5864,16 +5864,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U21" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V21" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W21" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y21" t="n">
         <v>1099.519478116707</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>665.1026499885492</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="C22" t="n">
-        <v>496.1664670606423</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="D22" t="n">
-        <v>346.0498276483066</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E22" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F22" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G22" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H22" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I22" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J22" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K22" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L22" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M22" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N22" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O22" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P22" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q22" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R22" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S22" t="n">
-        <v>1439.817372234358</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T22" t="n">
-        <v>1216.838891429094</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U22" t="n">
-        <v>1216.838891429094</v>
+        <v>1150.699034738197</v>
       </c>
       <c r="V22" t="n">
-        <v>1216.838891429094</v>
+        <v>1150.699034738197</v>
       </c>
       <c r="W22" t="n">
-        <v>1216.838891429094</v>
+        <v>861.2818647012359</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.543693962319</v>
+        <v>633.2923138032186</v>
       </c>
       <c r="Y22" t="n">
-        <v>846.7511148187889</v>
+        <v>547.7716635878746</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1342.972143346164</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="C23" t="n">
-        <v>974.009626405752</v>
+        <v>1275.288014512648</v>
       </c>
       <c r="D23" t="n">
-        <v>974.009626405752</v>
+        <v>917.0223159058974</v>
       </c>
       <c r="E23" t="n">
-        <v>588.2213738075077</v>
+        <v>531.2340633076531</v>
       </c>
       <c r="F23" t="n">
-        <v>533.3251860078259</v>
+        <v>531.2340633076531</v>
       </c>
       <c r="G23" t="n">
         <v>117.6204357321147</v>
@@ -5986,55 +5986,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I23" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J23" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K23" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L23" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M23" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N23" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O23" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P23" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q23" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R23" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S23" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T23" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U23" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V23" t="n">
-        <v>2106.577233583055</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W23" t="n">
-        <v>2106.577233583055</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X23" t="n">
-        <v>1733.111475321975</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y23" t="n">
-        <v>1342.972143346164</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="24">
@@ -6044,55 +6044,55 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966393</v>
       </c>
       <c r="C24" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155124</v>
       </c>
       <c r="D24" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542611</v>
       </c>
       <c r="E24" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488056</v>
       </c>
       <c r="F24" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756906</v>
       </c>
       <c r="G24" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182527</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057973</v>
       </c>
       <c r="I24" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0008189145203</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K24" t="n">
-        <v>614.543024838023</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L24" t="n">
-        <v>909.2465818694948</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M24" t="n">
-        <v>1272.508600828715</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N24" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O24" t="n">
-        <v>1991.864164601822</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P24" t="n">
-        <v>2239.046898434119</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R24" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S24" t="n">
         <v>2426.617474780096</v>
@@ -6104,7 +6104,7 @@
         <v>2004.520742047138</v>
       </c>
       <c r="V24" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W24" t="n">
         <v>1515.131277087194</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51.24678656800311</v>
+        <v>506.5450760154093</v>
       </c>
       <c r="C25" t="n">
-        <v>51.24678656800311</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="D25" t="n">
-        <v>51.24678656800311</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E25" t="n">
-        <v>51.24678656800311</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F25" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G25" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H25" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I25" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J25" t="n">
         <v>76.71595955312199</v>
@@ -6171,28 +6171,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R25" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S25" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T25" t="n">
-        <v>1333.24891234856</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U25" t="n">
-        <v>1044.130574852398</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V25" t="n">
-        <v>789.4460866465112</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="W25" t="n">
-        <v>500.0289166095505</v>
+        <v>955.3272060569568</v>
       </c>
       <c r="X25" t="n">
-        <v>272.0393657115332</v>
+        <v>727.3376551589395</v>
       </c>
       <c r="Y25" t="n">
-        <v>51.24678656800311</v>
+        <v>506.5450760154093</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1203.388756704967</v>
+        <v>820.4983899643612</v>
       </c>
       <c r="C26" t="n">
-        <v>834.426239764555</v>
+        <v>820.4983899643612</v>
       </c>
       <c r="D26" t="n">
-        <v>476.1605411578045</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="E26" t="n">
-        <v>476.1605411578045</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F26" t="n">
-        <v>65.17463636819696</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G26" t="n">
-        <v>65.17463636819696</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H26" t="n">
-        <v>65.17463636819696</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I26" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K26" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L26" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M26" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N26" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O26" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P26" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q26" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R26" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S26" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T26" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U26" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V26" t="n">
-        <v>2353.59368700598</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W26" t="n">
-        <v>2353.59368700598</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X26" t="n">
-        <v>1980.1279287449</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y26" t="n">
-        <v>1589.988596769088</v>
+        <v>901.3425442071336</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E27" t="n">
-        <v>448.6792471488051</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G27" t="n">
         <v>165.443278618252</v>
@@ -6302,34 +6302,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I27" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J27" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K27" t="n">
-        <v>684.9695361605188</v>
+        <v>590.2049751143504</v>
       </c>
       <c r="L27" t="n">
-        <v>1117.223096727985</v>
+        <v>884.9085321458222</v>
       </c>
       <c r="M27" t="n">
-        <v>1480.485115687206</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N27" t="n">
-        <v>1867.770244284151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O27" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P27" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q27" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R27" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S27" t="n">
         <v>2426.617474780096</v>
@@ -6344,10 +6344,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W27" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X27" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y27" t="n">
         <v>1099.519478116707</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>331.72380835142</v>
+        <v>393.5881086072305</v>
       </c>
       <c r="C28" t="n">
-        <v>162.787625423513</v>
+        <v>224.6519256793236</v>
       </c>
       <c r="D28" t="n">
-        <v>51.24678656800311</v>
+        <v>74.5352862669879</v>
       </c>
       <c r="E28" t="n">
-        <v>51.24678656800311</v>
+        <v>74.5352862669879</v>
       </c>
       <c r="F28" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G28" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H28" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I28" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J28" t="n">
         <v>76.71595955312199</v>
@@ -6411,25 +6411,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S28" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T28" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U28" t="n">
-        <v>1216.838891429094</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V28" t="n">
-        <v>962.1544032232072</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W28" t="n">
-        <v>962.1544032232072</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X28" t="n">
-        <v>734.1648523251898</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="Y28" t="n">
-        <v>513.3722731816597</v>
+        <v>575.2365734374703</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2000.825031735866</v>
+        <v>1214.090290083872</v>
       </c>
       <c r="C29" t="n">
-        <v>1631.862514795454</v>
+        <v>845.1277731434607</v>
       </c>
       <c r="D29" t="n">
-        <v>1273.596816188704</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="E29" t="n">
-        <v>887.8085635904595</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="F29" t="n">
-        <v>476.8226588008519</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G29" t="n">
-        <v>61.11790852514076</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H29" t="n">
-        <v>61.11790852514076</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I29" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J29" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L29" t="n">
         <v>795.7553530872915</v>
@@ -6493,22 +6493,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T29" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U29" t="n">
-        <v>2353.59368700598</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V29" t="n">
-        <v>2353.59368700598</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W29" t="n">
-        <v>2000.825031735866</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X29" t="n">
-        <v>2000.825031735866</v>
+        <v>1604.229622059684</v>
       </c>
       <c r="Y29" t="n">
-        <v>2000.825031735866</v>
+        <v>1214.090290083872</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D30" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E30" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F30" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G30" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I30" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J30" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K30" t="n">
-        <v>614.5430248380226</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L30" t="n">
-        <v>909.2465818694943</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M30" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N30" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O30" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P30" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q30" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R30" t="n">
         <v>2562.339328400155</v>
@@ -6575,7 +6575,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U30" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V30" t="n">
         <v>1769.368633815395</v>
@@ -6584,7 +6584,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X30" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y30" t="n">
         <v>1099.519478116707</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>665.1026499885492</v>
+        <v>633.2923138032181</v>
       </c>
       <c r="C31" t="n">
-        <v>496.1664670606423</v>
+        <v>633.2923138032181</v>
       </c>
       <c r="D31" t="n">
-        <v>346.0498276483066</v>
+        <v>483.1756743908824</v>
       </c>
       <c r="E31" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F31" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G31" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H31" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I31" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J31" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K31" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L31" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M31" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N31" t="n">
         <v>1123.088724245823</v>
@@ -6648,25 +6648,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S31" t="n">
-        <v>1439.817372234359</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T31" t="n">
-        <v>1216.838891429094</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U31" t="n">
-        <v>1216.838891429094</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V31" t="n">
-        <v>1216.838891429094</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="W31" t="n">
-        <v>1067.543693962319</v>
+        <v>861.2818647012355</v>
       </c>
       <c r="X31" t="n">
-        <v>1067.543693962319</v>
+        <v>633.2923138032181</v>
       </c>
       <c r="Y31" t="n">
-        <v>846.7511148187889</v>
+        <v>633.2923138032181</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1260.553401554988</v>
+        <v>1194.179752390877</v>
       </c>
       <c r="C32" t="n">
-        <v>891.5908846145765</v>
+        <v>825.2172354504648</v>
       </c>
       <c r="D32" t="n">
-        <v>533.3251860078259</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="E32" t="n">
-        <v>533.3251860078259</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F32" t="n">
-        <v>533.3251860078259</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G32" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H32" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I32" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J32" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L32" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M32" t="n">
         <v>1220.470313923562</v>
@@ -6727,25 +6727,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S32" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T32" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U32" t="n">
-        <v>2437.640120926626</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V32" t="n">
-        <v>2373.387655150304</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W32" t="n">
-        <v>2020.61899988019</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X32" t="n">
-        <v>1647.15324161911</v>
+        <v>1810.593301929725</v>
       </c>
       <c r="Y32" t="n">
-        <v>1647.15324161911</v>
+        <v>1580.779592454998</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E33" t="n">
-        <v>448.6792471488051</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F33" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G33" t="n">
-        <v>165.4432786182523</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H33" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I33" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J33" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K33" t="n">
-        <v>614.543024838023</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L33" t="n">
-        <v>909.2465818694948</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M33" t="n">
-        <v>1272.508600828715</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N33" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O33" t="n">
-        <v>1991.864164601822</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P33" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q33" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R33" t="n">
         <v>2562.339328400155</v>
@@ -6812,16 +6812,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U33" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V33" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W33" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X33" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y33" t="n">
         <v>1099.519478116707</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.629344792067</v>
+        <v>359.4550643866929</v>
       </c>
       <c r="C34" t="n">
-        <v>51.24678656800311</v>
+        <v>190.518881458786</v>
       </c>
       <c r="D34" t="n">
-        <v>51.24678656800311</v>
+        <v>190.518881458786</v>
       </c>
       <c r="E34" t="n">
-        <v>51.24678656800311</v>
+        <v>190.518881458786</v>
       </c>
       <c r="F34" t="n">
-        <v>51.24678656800311</v>
+        <v>190.518881458786</v>
       </c>
       <c r="G34" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H34" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I34" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J34" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K34" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L34" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M34" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N34" t="n">
         <v>1123.088724245823</v>
@@ -6885,25 +6885,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S34" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T34" t="n">
-        <v>1216.838891429094</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U34" t="n">
-        <v>927.7205539329318</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V34" t="n">
-        <v>673.036065727045</v>
+        <v>869.6648135671836</v>
       </c>
       <c r="W34" t="n">
-        <v>383.6188956900843</v>
+        <v>580.2476435302231</v>
       </c>
       <c r="X34" t="n">
-        <v>155.629344792067</v>
+        <v>580.2476435302231</v>
       </c>
       <c r="Y34" t="n">
-        <v>155.629344792067</v>
+        <v>359.4550643866929</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1270.78477319198</v>
+        <v>1287.435190625612</v>
       </c>
       <c r="C35" t="n">
-        <v>1270.78477319198</v>
+        <v>1287.435190625612</v>
       </c>
       <c r="D35" t="n">
-        <v>1270.78477319198</v>
+        <v>929.1694920188613</v>
       </c>
       <c r="E35" t="n">
-        <v>884.9965205937353</v>
+        <v>929.1694920188613</v>
       </c>
       <c r="F35" t="n">
-        <v>474.0106158041278</v>
+        <v>518.1835872292538</v>
       </c>
       <c r="G35" t="n">
-        <v>58.30586552841663</v>
+        <v>102.4788369535427</v>
       </c>
       <c r="H35" t="n">
-        <v>58.30586552841663</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I35" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J35" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L35" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M35" t="n">
         <v>1220.470313923562</v>
@@ -6964,25 +6964,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S35" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T35" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U35" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V35" t="n">
-        <v>1644.250531453059</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W35" t="n">
-        <v>1644.250531453059</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="X35" t="n">
-        <v>1270.78477319198</v>
+        <v>2064.174362665545</v>
       </c>
       <c r="Y35" t="n">
-        <v>1270.78477319198</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E36" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F36" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G36" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I36" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J36" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K36" t="n">
-        <v>614.543024838023</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L36" t="n">
-        <v>909.2465818694948</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M36" t="n">
-        <v>1272.508600828715</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N36" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O36" t="n">
-        <v>1991.864164601822</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P36" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q36" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R36" t="n">
         <v>2562.339328400155</v>
@@ -7049,16 +7049,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U36" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V36" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y36" t="n">
         <v>1099.519478116707</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="C37" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D37" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E37" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F37" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G37" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H37" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I37" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J37" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K37" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L37" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M37" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N37" t="n">
         <v>1123.088724245823</v>
@@ -7122,25 +7122,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S37" t="n">
-        <v>1439.817372234359</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T37" t="n">
-        <v>1216.838891429094</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U37" t="n">
-        <v>927.7205539329318</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V37" t="n">
-        <v>673.036065727045</v>
+        <v>957.4325513382325</v>
       </c>
       <c r="W37" t="n">
-        <v>383.6188956900843</v>
+        <v>668.015381301272</v>
       </c>
       <c r="X37" t="n">
-        <v>155.629344792067</v>
+        <v>440.0258304032546</v>
       </c>
       <c r="Y37" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>918.0161179218655</v>
+        <v>956.372303282041</v>
       </c>
       <c r="C38" t="n">
-        <v>549.0536009814539</v>
+        <v>587.4097863416293</v>
       </c>
       <c r="D38" t="n">
-        <v>549.0536009814539</v>
+        <v>587.4097863416293</v>
       </c>
       <c r="E38" t="n">
-        <v>533.3251860078259</v>
+        <v>201.6215337433851</v>
       </c>
       <c r="F38" t="n">
-        <v>533.3251860078259</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G38" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H38" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I38" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J38" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L38" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M38" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N38" t="n">
         <v>1656.671415230817</v>
@@ -7201,25 +7201,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S38" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T38" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U38" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V38" t="n">
-        <v>1644.250531453059</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W38" t="n">
-        <v>1291.481876182945</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="X38" t="n">
-        <v>918.0161179218655</v>
+        <v>1733.111475321974</v>
       </c>
       <c r="Y38" t="n">
-        <v>918.0161179218655</v>
+        <v>1342.972143346163</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6792471488051</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4432786182523</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I39" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J39" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K39" t="n">
-        <v>560.1394111735141</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L39" t="n">
-        <v>1117.223096727985</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M39" t="n">
-        <v>1480.485115687206</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N39" t="n">
-        <v>1867.770244284151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O39" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P39" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q39" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R39" t="n">
         <v>2562.339328400155</v>
@@ -7286,16 +7286,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U39" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V39" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y39" t="n">
         <v>1099.519478116707</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>685.1760210978775</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C40" t="n">
-        <v>516.2398381699707</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D40" t="n">
-        <v>366.1231987576349</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E40" t="n">
-        <v>366.1231987576349</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F40" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G40" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H40" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I40" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J40" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K40" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L40" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M40" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N40" t="n">
         <v>1123.088724245823</v>
@@ -7359,25 +7359,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S40" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T40" t="n">
-        <v>1413.467639269233</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U40" t="n">
-        <v>1413.467639269233</v>
+        <v>927.7205539329316</v>
       </c>
       <c r="V40" t="n">
-        <v>1413.467639269233</v>
+        <v>927.7205539329316</v>
       </c>
       <c r="W40" t="n">
-        <v>1315.606615969665</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X40" t="n">
-        <v>1087.617065071647</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y40" t="n">
-        <v>866.8244859281173</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1291.481876182945</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="C41" t="n">
-        <v>922.5193592425337</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D41" t="n">
-        <v>564.2536606357833</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E41" t="n">
-        <v>564.2536606357833</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F41" t="n">
-        <v>421.6795797345444</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G41" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H41" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I41" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J41" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L41" t="n">
         <v>795.7553530872915</v>
@@ -7438,25 +7438,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S41" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T41" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U41" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V41" t="n">
         <v>1644.250531453059</v>
       </c>
       <c r="W41" t="n">
-        <v>1291.481876182945</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X41" t="n">
-        <v>1291.481876182945</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y41" t="n">
-        <v>1291.481876182945</v>
+        <v>918.0161179218646</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E42" t="n">
-        <v>448.6792471488051</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4432786182523</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H42" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057882</v>
       </c>
       <c r="I42" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J42" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K42" t="n">
-        <v>614.543024838023</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L42" t="n">
-        <v>909.2465818694948</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M42" t="n">
-        <v>1272.508600828715</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N42" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O42" t="n">
-        <v>1991.864164601822</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P42" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R42" t="n">
         <v>2562.339328400155</v>
@@ -7523,16 +7523,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U42" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V42" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W42" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y42" t="n">
         <v>1099.519478116707</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>223.9551031446992</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C43" t="n">
-        <v>223.9551031446992</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D43" t="n">
-        <v>223.9551031446992</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E43" t="n">
-        <v>223.9551031446992</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F43" t="n">
-        <v>77.06515564678881</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G43" t="n">
-        <v>77.06515564678881</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H43" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I43" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J43" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K43" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L43" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M43" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N43" t="n">
         <v>1123.088724245823</v>
@@ -7596,25 +7596,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S43" t="n">
-        <v>1439.817372234359</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T43" t="n">
-        <v>1216.838891429094</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U43" t="n">
-        <v>1216.838891429094</v>
+        <v>1225.779039682638</v>
       </c>
       <c r="V43" t="n">
-        <v>962.1544032232072</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W43" t="n">
-        <v>672.7372331862466</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X43" t="n">
-        <v>444.7476822882293</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y43" t="n">
-        <v>223.9551031446992</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1211.708328559738</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="C44" t="n">
-        <v>842.7458116193266</v>
+        <v>1277.379137212821</v>
       </c>
       <c r="D44" t="n">
-        <v>484.4801130125761</v>
+        <v>919.1134386060701</v>
       </c>
       <c r="E44" t="n">
-        <v>98.69186041433181</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="F44" t="n">
-        <v>98.69186041433181</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G44" t="n">
-        <v>98.69186041433181</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H44" t="n">
-        <v>98.69186041433181</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I44" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L44" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M44" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N44" t="n">
         <v>1656.671415230817</v>
@@ -7666,34 +7666,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P44" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q44" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R44" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S44" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T44" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U44" t="n">
-        <v>1975.31341879663</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V44" t="n">
-        <v>1975.31341879663</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W44" t="n">
-        <v>1975.31341879663</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="X44" t="n">
-        <v>1601.84766053555</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="Y44" t="n">
-        <v>1211.708328559738</v>
+        <v>1624.926725050651</v>
       </c>
     </row>
     <row r="45">
@@ -7703,55 +7703,55 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966393</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155124</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542611</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488056</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756906</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182527</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057973</v>
       </c>
       <c r="I45" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J45" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K45" t="n">
-        <v>614.5430248380223</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L45" t="n">
-        <v>909.2465818694941</v>
+        <v>815.114548125109</v>
       </c>
       <c r="M45" t="n">
-        <v>1272.508600828714</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N45" t="n">
-        <v>1659.793729425659</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O45" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P45" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q45" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R45" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S45" t="n">
         <v>2426.617474780096</v>
@@ -7760,16 +7760,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y45" t="n">
         <v>1099.519478116707</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.629344792067</v>
+        <v>940.7932119894607</v>
       </c>
       <c r="C46" t="n">
-        <v>155.629344792067</v>
+        <v>771.8570290615538</v>
       </c>
       <c r="D46" t="n">
-        <v>155.629344792067</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="E46" t="n">
-        <v>155.629344792067</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F46" t="n">
-        <v>155.629344792067</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G46" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H46" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I46" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J46" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K46" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L46" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M46" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N46" t="n">
         <v>1123.088724245823</v>
@@ -7833,25 +7833,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S46" t="n">
-        <v>1439.817372234359</v>
+        <v>1571.223806861248</v>
       </c>
       <c r="T46" t="n">
-        <v>1216.838891429094</v>
+        <v>1571.223806861248</v>
       </c>
       <c r="U46" t="n">
-        <v>927.7205539329318</v>
+        <v>1571.223806861248</v>
       </c>
       <c r="V46" t="n">
-        <v>673.036065727045</v>
+        <v>1571.223806861248</v>
       </c>
       <c r="W46" t="n">
-        <v>383.6188956900843</v>
+        <v>1571.223806861248</v>
       </c>
       <c r="X46" t="n">
-        <v>155.629344792067</v>
+        <v>1343.23425596323</v>
       </c>
       <c r="Y46" t="n">
-        <v>155.629344792067</v>
+        <v>1122.4416768197</v>
       </c>
     </row>
   </sheetData>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>216.1689417605295</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>230.9021802921101</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>224.9338349104513</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>223.9130870165151</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>224.9047394980952</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>226.8004876237037</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>125.279474152809</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>135.1783081492953</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>134.9734717348195</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>137.9552831339604</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>127.0523621961765</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>138.6723272902159</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>130.8251179594148</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>137.876557486824</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,16 +8379,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>134.8846762812383</v>
+        <v>132.829050160381</v>
       </c>
       <c r="M7" t="n">
-        <v>138.9257839476051</v>
+        <v>136.7584144232109</v>
       </c>
       <c r="N7" t="n">
-        <v>127.6855444652332</v>
+        <v>125.5697101438201</v>
       </c>
       <c r="O7" t="n">
-        <v>138.4565384518428</v>
+        <v>136.5022229983092</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8616,19 +8616,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>195.869982994213</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>87.83296830063483</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.33471860595202</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>31.66886087721419</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>193.4171746291339</v>
+        <v>141.8304999279933</v>
       </c>
       <c r="R15" t="n">
-        <v>27.17550845985411</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9556134883069305</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>280.1079373569287</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>54.95314511566525</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>211.032901224156</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>54.95314511566558</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>114.3555089013354</v>
       </c>
       <c r="R24" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>168.743458178065</v>
       </c>
       <c r="L27" t="n">
-        <v>138.939397511106</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>193.3273467878349</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>193.3273467878353</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>193.3273467878353</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L39" t="n">
-        <v>265.0304328515148</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>193.3273467878353</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>224.3355197601778</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>305.160150103916</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>415.2719136653315</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>339.1591273639663</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>209.2875531008537</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>9.333153632346626</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>6.662070204069355</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>147.9328792859261</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>208.3176711088464</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>222.9609181616162</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3431869998522</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>137.3270249496105</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>112.0761641735693</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>88.82880883053478</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>99.13387022403403</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>171.3768354696432</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>200.09825350053</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9402970669222</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9771528405858</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1042421939873</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>155.0346738261334</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>92.38164530305488</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>20.66310184027958</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>1.049186246181169</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>85.00426092325998</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>176.6717008553546</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>223.7756395391318</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>227.8865124882789</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3182751827887</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>194.0391600777114</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I11" t="n">
-        <v>78.16360657708285</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>208.0722578696038</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>50.91013008685292</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23339,10 +23339,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>80.41538998824204</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>27.4711376854531</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I12" t="n">
-        <v>26.17372043046386</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>89.39418872787758</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>6.38495065014601</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I13" t="n">
         <v>109.1541654470835</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S13" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T13" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>343.3553515052354</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>10.22937565621379</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>302.9415626890815</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I14" t="n">
-        <v>72.94895555382612</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T14" t="n">
-        <v>207.4801526921366</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.68199844146439</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>12.78416880828921</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T15" t="n">
-        <v>192.4715122588032</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>37.34118935679811</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>93.73602538261214</v>
       </c>
       <c r="F16" t="n">
-        <v>27.6552423305767</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3908276674908</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H16" t="n">
-        <v>148.0003692913787</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I16" t="n">
-        <v>107.3295495297844</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>105.3447526178267</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S16" t="n">
-        <v>196.1303181134664</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T16" t="n">
-        <v>221.1085776577819</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>339.491761013626</v>
+        <v>300.7156752918723</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H17" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.36824550317213</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,16 +23898,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I19" t="n">
         <v>104.7965952039006</v>
@@ -23940,7 +23940,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>153.0354156738013</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>405.1252033452595</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H20" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I20" t="n">
-        <v>27.18945218457921</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I22" t="n">
         <v>104.7965952039006</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>77.90740989693026</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>133.9192096389043</v>
       </c>
     </row>
     <row r="23">
@@ -24211,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>352.5288198200265</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.070211473171071</v>
       </c>
       <c r="H23" t="n">
         <v>301.0185525624054</v>
@@ -24259,10 +24259,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.22916261343116</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>147.2515091551288</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
-        <v>115.2459207102716</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>302.6981289631358</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
-        <v>51.92134137027858</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>38.19004255125752</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>122.3654333209363</v>
       </c>
       <c r="G28" t="n">
         <v>166.3066000448042</v>
@@ -24651,25 +24651,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24685,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>281.3071202463394</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>55.93750193490422</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>30.55201176965419</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>147.2515091551288</v>
@@ -24891,22 +24891,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>138.7207528444837</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>264.1423173515761</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>158.7223662760742</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>63.90808845680458</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>28.42722610292913</v>
       </c>
       <c r="H34" t="n">
         <v>147.2515091551288</v>
@@ -25125,7 +25125,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>301.0185525624054</v>
+        <v>250.2988226807212</v>
       </c>
       <c r="I35" t="n">
-        <v>58.7214245016611</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>147.2515091551288</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>60.80382475786405</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>115.2459207102715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>366.35923924837</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>258.0050460380833</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H40" t="n">
         <v>147.2515091551288</v>
@@ -25599,19 +25599,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>189.6405852700185</v>
+        <v>42.94025756838107</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>343.0559521378233</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>265.727705649485</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H43" t="n">
-        <v>121.691323767131</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I43" t="n">
         <v>104.7965952039006</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2271541212006</v>
+        <v>74.32920489499733</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>21.20077981155572</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
-        <v>18.73928956460504</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>62.96786740298093</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>130.0923702806203</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>333272.9571474838</v>
+        <v>333930.3144708326</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>333272.9571474838</v>
+        <v>335062.3006182676</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>750564.4697775936</v>
+        <v>750564.4697775923</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780334.6792266911</v>
+        <v>750564.4697775923</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821662.0512459925</v>
+        <v>821662.0512459927</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821662.0512459925</v>
+        <v>821662.0512459927</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821662.0512459928</v>
+        <v>821662.0512459927</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821662.0512459928</v>
+        <v>821662.0512459927</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>821662.0512459927</v>
+        <v>821662.0512459923</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821662.0512459927</v>
+        <v>821662.0512459928</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821662.0512459927</v>
+        <v>821662.0512459925</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821662.0512459925</v>
+        <v>821662.0512459927</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91381.29470172944</v>
+        <v>91381.29470172945</v>
       </c>
       <c r="C2" t="n">
-        <v>91381.29470172945</v>
+        <v>91850.55321912108</v>
       </c>
       <c r="D2" t="n">
-        <v>91381.29470172945</v>
+        <v>92739.38510646019</v>
       </c>
       <c r="E2" t="n">
-        <v>237615.1559891613</v>
+        <v>237615.155989161</v>
       </c>
       <c r="F2" t="n">
-        <v>247019.9855292874</v>
+        <v>237615.1559891609</v>
       </c>
       <c r="G2" t="n">
-        <v>260075.8859201621</v>
+        <v>260075.8859201622</v>
       </c>
       <c r="H2" t="n">
         <v>260075.8859201622</v>
@@ -26337,25 +26337,25 @@
         <v>260075.8859201623</v>
       </c>
       <c r="J2" t="n">
-        <v>260075.8859201623</v>
+        <v>260075.8859201621</v>
       </c>
       <c r="K2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201621</v>
       </c>
       <c r="L2" t="n">
         <v>260075.8859201622</v>
       </c>
       <c r="M2" t="n">
-        <v>260075.8859201621</v>
+        <v>260075.8859201622</v>
       </c>
       <c r="N2" t="n">
         <v>260075.8859201622</v>
       </c>
       <c r="O2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201621</v>
       </c>
       <c r="P2" t="n">
-        <v>260075.8859201621</v>
+        <v>260075.8859201623</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6981.97949560945</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13142.48646453708</v>
       </c>
       <c r="E3" t="n">
-        <v>847737.3085709547</v>
+        <v>829248.2878802388</v>
       </c>
       <c r="F3" t="n">
-        <v>38409.38911769763</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>52003.04388847123</v>
+        <v>89463.48313022775</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>135097.2156759872</v>
+        <v>135097.2156759868</v>
       </c>
       <c r="N3" t="n">
-        <v>10098.73820533336</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>13774.44220157204</v>
+        <v>23696.8739785986</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
-        <v>48378.33248915088</v>
+        <v>47572.70737592546</v>
       </c>
       <c r="D4" t="n">
-        <v>48378.33248915087</v>
+        <v>45933.62940400945</v>
       </c>
       <c r="E4" t="n">
-        <v>10209.56958408459</v>
+        <v>10209.56958408458</v>
       </c>
       <c r="F4" t="n">
-        <v>10690.88194404155</v>
+        <v>10209.56958408457</v>
       </c>
       <c r="G4" t="n">
         <v>11359.04569987402</v>
       </c>
       <c r="H4" t="n">
-        <v>11359.04569987401</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="I4" t="n">
         <v>11359.04569987402</v>
@@ -26447,19 +26447,19 @@
         <v>11359.04569987401</v>
       </c>
       <c r="L4" t="n">
+        <v>11359.04569987401</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11359.04569987401</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11359.04569987401</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11359.04569987401</v>
+      </c>
+      <c r="P4" t="n">
         <v>11359.04569987402</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11359.04569987402</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11359.04569987402</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11359.04569987402</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11359.04569987401</v>
       </c>
     </row>
     <row r="5">
@@ -26472,28 +26472,28 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33627.6</v>
+        <v>33794.75003152232</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>34129.29174257201</v>
       </c>
       <c r="E5" t="n">
-        <v>51571.48185587233</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="F5" t="n">
-        <v>54811.85142665751</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="G5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984474</v>
       </c>
       <c r="H5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="I5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="J5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="K5" t="n">
         <v>59310.17243984471</v>
@@ -26511,7 +26511,7 @@
         <v>59310.17243984471</v>
       </c>
       <c r="P5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5775.311757456202</v>
+        <v>7860.2948155751</v>
       </c>
       <c r="C6" t="n">
-        <v>-5775.311757456195</v>
+        <v>1988.809263280328</v>
       </c>
       <c r="D6" t="n">
-        <v>-5775.311757456187</v>
+        <v>-1973.101134575176</v>
       </c>
       <c r="E6" t="n">
-        <v>-678451.8861513479</v>
+        <v>-654069.0515439943</v>
       </c>
       <c r="F6" t="n">
-        <v>137112.4061783594</v>
+        <v>175179.2363362444</v>
       </c>
       <c r="G6" t="n">
-        <v>132176.1611700805</v>
+        <v>99420.43837802652</v>
       </c>
       <c r="H6" t="n">
-        <v>184179.2050585518</v>
+        <v>188883.9215082543</v>
       </c>
       <c r="I6" t="n">
-        <v>184179.2050585519</v>
+        <v>188883.9215082545</v>
       </c>
       <c r="J6" t="n">
-        <v>184179.2050585519</v>
+        <v>188883.9215082542</v>
       </c>
       <c r="K6" t="n">
-        <v>184179.2050585519</v>
+        <v>188883.9215082542</v>
       </c>
       <c r="L6" t="n">
-        <v>184179.2050585519</v>
+        <v>188883.9215082543</v>
       </c>
       <c r="M6" t="n">
-        <v>49081.98938256457</v>
+        <v>53786.7058322675</v>
       </c>
       <c r="N6" t="n">
-        <v>174080.4668532185</v>
+        <v>188883.9215082543</v>
       </c>
       <c r="O6" t="n">
-        <v>170404.7628569798</v>
+        <v>165187.0475296557</v>
       </c>
       <c r="P6" t="n">
-        <v>184179.2050585518</v>
+        <v>188883.9215082544</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7.66743263863845</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="E3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="F3" t="n">
-        <v>887.3568468095251</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="G3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="H3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="I3" t="n">
         <v>934.0648921175392</v>
@@ -26779,7 +26779,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="P3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>542.1149567261646</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="F4" t="n">
-        <v>583.3465816810834</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="G4" t="n">
+        <v>640.5848321000391</v>
+      </c>
+      <c r="H4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="I4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="K4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="I4" t="n">
-        <v>640.5848321000389</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000389</v>
-      </c>
-      <c r="K4" t="n">
-        <v>640.5848321000389</v>
-      </c>
-      <c r="L4" t="n">
-        <v>640.5848321000389</v>
-      </c>
       <c r="M4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
     </row>
   </sheetData>
@@ -26962,19 +26962,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7.66743263863845</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>15.34595004815087</v>
       </c>
       <c r="E3" t="n">
-        <v>853.7106645376851</v>
+        <v>830.6972818508948</v>
       </c>
       <c r="F3" t="n">
-        <v>33.64618227183996</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46.70804530801399</v>
+        <v>80.35422757985532</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>542.1149567261646</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="F4" t="n">
-        <v>41.23162495491889</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>57.23825041895528</v>
+        <v>98.46987537387588</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>542.1149567261648</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="N4" t="n">
-        <v>41.23162495491867</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>57.2382504189554</v>
+        <v>98.46987537387588</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>542.1149567261646</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="N4" t="n">
-        <v>41.23162495491889</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>57.23825041895528</v>
+        <v>98.46987537387588</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.03082384980357164</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.3156747518008281</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.188336469552197</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2.616135722265891</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>3.920909284451079</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>4.864234677877135</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>5.412398316821402</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>5.4999765800758</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>5.193471923591535</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>4.432508131565859</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>3.328629010475449</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.936238655223609</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.7023984773988894</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.1349314025151349</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.00246590798428573</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.01649221360009025</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.1592800629271875</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.5678240208803004</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.55815251385765</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2.663130825063697</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>3.580908045054684</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>4.178750788057955</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>4.289349887156806</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>3.923917154228491</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>3.14928945491548</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>2.105216599197486</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.023963928609113</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.3063356341946586</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.06647519429159182</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.001085014052637517</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.01382651787295458</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.122930313452269</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.4158011011248525</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.9775348136178889</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1.606389985603268</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>2.055626120857266</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>2.167369524394144</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2.115834321413133</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.954315453533617</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.672254488925343</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1.157782328434406</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.6216905218148485</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.2409584978404902</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.0590769400026241</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.0007541737021611599</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H11" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I11" t="n">
-        <v>132.3122829933231</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J11" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K11" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L11" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M11" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N11" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O11" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P11" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q11" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R11" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S11" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T11" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H12" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I12" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J12" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K12" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L12" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M12" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N12" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O12" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P12" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q12" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R12" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S12" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T12" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H13" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I13" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J13" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K13" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L13" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M13" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N13" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O13" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P13" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R13" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S13" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T13" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.567263705766933</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H14" t="n">
-        <v>36.5332394266856</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I14" t="n">
-        <v>137.5269340165798</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J14" t="n">
-        <v>302.7670479473364</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K14" t="n">
-        <v>453.7693206124508</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L14" t="n">
-        <v>562.9409672478157</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M14" t="n">
-        <v>626.3802931752483</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N14" t="n">
-        <v>636.5157811792586</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O14" t="n">
-        <v>601.0438027050387</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P14" t="n">
-        <v>512.9769799689175</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q14" t="n">
-        <v>385.2243485061391</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R14" t="n">
-        <v>224.0821287573823</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S14" t="n">
-        <v>81.28902169516405</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T14" t="n">
-        <v>15.61569687199476</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2853810964613545</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.908654349741243</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H15" t="n">
-        <v>18.43358279881674</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I15" t="n">
-        <v>65.71463440995069</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J15" t="n">
-        <v>180.3259795955093</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K15" t="n">
-        <v>308.2058210281725</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L15" t="n">
-        <v>414.4207613330712</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M15" t="n">
-        <v>483.6094815111911</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N15" t="n">
-        <v>496.4091854618682</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O15" t="n">
-        <v>454.1174232912859</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P15" t="n">
-        <v>364.469267890501</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q15" t="n">
-        <v>243.6380534862681</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R15" t="n">
-        <v>118.5039955041098</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S15" t="n">
-        <v>35.45241741734279</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T15" t="n">
-        <v>7.693216436018427</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1255693651145555</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.600151690967996</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H16" t="n">
-        <v>14.22680321606092</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I16" t="n">
-        <v>48.12092539747393</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J16" t="n">
-        <v>113.1307245514373</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K16" t="n">
-        <v>185.9085328233726</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8989159462783</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M16" t="n">
-        <v>250.8310509760105</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N16" t="n">
-        <v>244.8668492187663</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O16" t="n">
-        <v>226.1741681015492</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P16" t="n">
-        <v>193.5310736058019</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.9908838682383</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R16" t="n">
-        <v>71.94863875934278</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S16" t="n">
-        <v>27.88627992350588</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T16" t="n">
-        <v>6.837011770499617</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08728100132552716</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H17" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I17" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J17" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K17" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L17" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M17" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N17" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O17" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P17" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q17" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R17" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S17" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T17" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H18" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I18" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J18" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K18" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L18" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M18" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N18" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O18" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P18" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q18" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R18" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S18" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T18" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32390,25 +32390,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I19" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J19" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K19" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L19" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M19" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N19" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O19" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P19" t="n">
         <v>203.7180217169137</v>
@@ -32417,16 +32417,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R19" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S19" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T19" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H20" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I20" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J20" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K20" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L20" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M20" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N20" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O20" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P20" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q20" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R20" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S20" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T20" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H21" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I21" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J21" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K21" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L21" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M21" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N21" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O21" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P21" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q21" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R21" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S21" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T21" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32627,25 +32627,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I22" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J22" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K22" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L22" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M22" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N22" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O22" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P22" t="n">
         <v>203.7180217169137</v>
@@ -32654,16 +32654,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R22" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S22" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T22" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H44" t="n">
         <v>38.45624955336179</v>
@@ -34374,16 +34374,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L44" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M44" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N44" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O44" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P44" t="n">
         <v>539.9786897190645</v>
@@ -34395,7 +34395,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S44" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T44" t="n">
         <v>16.4376645838976</v>
@@ -34444,7 +34444,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I45" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J45" t="n">
         <v>189.8178475575841</v>
@@ -34456,16 +34456,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M45" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N45" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O45" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P45" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q45" t="n">
         <v>256.4624964168761</v>
@@ -34523,7 +34523,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I46" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J46" t="n">
         <v>119.0856174753787</v>
@@ -34550,7 +34550,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R46" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S46" t="n">
         <v>29.35413767523479</v>
@@ -34559,7 +34559,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K11" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L11" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M11" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N11" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O11" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P11" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.3119886183905</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>172.7419126813485</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K12" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L12" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M12" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N12" t="n">
-        <v>542.1149567261646</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O12" t="n">
-        <v>294.3022689440066</v>
+        <v>382.1352372446408</v>
       </c>
       <c r="P12" t="n">
-        <v>216.6751672332334</v>
+        <v>535.1379358731701</v>
       </c>
       <c r="Q12" t="n">
-        <v>178.7528990548814</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>15.48193198348422</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K13" t="n">
-        <v>156.58989002316</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L13" t="n">
-        <v>256.46845489719</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M13" t="n">
-        <v>280.9040898900914</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N13" t="n">
-        <v>279.7143300212427</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O13" t="n">
-        <v>242.1833805735795</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P13" t="n">
-        <v>183.4714556748829</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.74826709349607</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>121.7211434206502</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K14" t="n">
-        <v>233.6794695674702</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L14" t="n">
-        <v>327.1745522778285</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M14" t="n">
-        <v>396.0340599479756</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N14" t="n">
-        <v>407.1027175826677</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O14" t="n">
-        <v>370.945591283352</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P14" t="n">
-        <v>281.7439842136479</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q14" t="n">
-        <v>162.9186586316896</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R14" t="n">
-        <v>8.496590943250141</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>53.48835292884257</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K15" t="n">
-        <v>434.8296190663921</v>
+        <v>423.1432842295773</v>
       </c>
       <c r="L15" t="n">
-        <v>275.866381553197</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M15" t="n">
-        <v>341.4754475891728</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N15" t="n">
-        <v>365.0674733785349</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O15" t="n">
-        <v>311.5211788468415</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P15" t="n">
-        <v>230.4948604761708</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q15" t="n">
-        <v>297.0734540293805</v>
+        <v>236.2486803769224</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>19.77154443476454</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K16" t="n">
-        <v>163.6390409974897</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L16" t="n">
-        <v>265.4889412065944</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M16" t="n">
-        <v>290.4149279378511</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N16" t="n">
-        <v>288.9990215979949</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O16" t="n">
-        <v>250.7592960155889</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P16" t="n">
-        <v>190.8096328706954</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q16" t="n">
-        <v>47.8288406165439</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K17" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L17" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M17" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N17" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O17" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P17" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R17" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>63.93583437922432</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K18" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L18" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M18" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N18" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="O18" t="n">
-        <v>335.424681996123</v>
+        <v>615.5326193530518</v>
       </c>
       <c r="P18" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q18" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K19" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L19" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M19" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N19" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O19" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P19" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K20" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L20" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M20" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N20" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O20" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P20" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R20" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>117.9333660065826</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K21" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676409</v>
       </c>
       <c r="L21" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M21" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N21" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O21" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P21" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q21" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K22" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L22" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M22" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N22" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O22" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P22" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q22" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>356.8062301067508</v>
       </c>
       <c r="M23" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457283</v>
       </c>
       <c r="N23" t="n">
         <v>440.6071730376315</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>117.933366006583</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K24" t="n">
         <v>451.0527332560634</v>
@@ -36457,10 +36457,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q24" t="n">
-        <v>326.5580100667037</v>
+        <v>230.83623123219</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K27" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215498</v>
       </c>
       <c r="L27" t="n">
-        <v>436.6197581489562</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M27" t="n">
         <v>366.9313322820405</v>
@@ -36694,10 +36694,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q27" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K30" t="n">
-        <v>379.9148430313197</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L30" t="n">
         <v>297.6803606378502</v>
@@ -36934,7 +36934,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K33" t="n">
-        <v>379.9148430313201</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L33" t="n">
         <v>297.6803606378502</v>
@@ -37171,7 +37171,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K36" t="n">
-        <v>379.9148430313201</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L36" t="n">
         <v>297.6803606378502</v>
@@ -37408,7 +37408,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K39" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L39" t="n">
-        <v>562.710793489365</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M39" t="n">
         <v>366.9313322820405</v>
@@ -37642,10 +37642,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q39" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K42" t="n">
-        <v>379.9148430313201</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L42" t="n">
         <v>297.6803606378502</v>
@@ -37882,7 +37882,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K44" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L44" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M44" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N44" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O44" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P44" t="n">
         <v>308.745693963795</v>
@@ -38040,7 +38040,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R44" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K45" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L45" t="n">
-        <v>297.6803606378502</v>
+        <v>522.015880398028</v>
       </c>
       <c r="M45" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N45" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O45" t="n">
-        <v>335.4246819961231</v>
+        <v>640.584832100039</v>
       </c>
       <c r="P45" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q45" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K46" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L46" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M46" t="n">
         <v>303.6179906468033</v>
@@ -38189,13 +38189,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O46" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P46" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
